--- a/Test case_Chức năng tìm vé tàu_dsvn.xlsx
+++ b/Test case_Chức năng tìm vé tàu_dsvn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humgedu-my.sharepoint.com/personal/2121050045_student_humg_edu_vn/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://humgedu-my.sharepoint.com/personal/2121050045_student_humg_edu_vn/Documents/Desktop/TC_tìm kiếm vé tàu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F339E05-FA2E-4286-8A90-6E3D4798D9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{6F339E05-FA2E-4286-8A90-6E3D4798D9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FFDF7F-C078-49C4-891D-C2ECC7595191}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F523707-61FC-4D3F-B54C-4F976446339B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
   <si>
     <t>Verify error when click  continuously seat</t>
   </si>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>Seats that have been sold cannot be reserved</t>
-  </si>
-  <si>
-    <t>in page:dsvn.vn/#/timkiem/ketqua
-Click seat has a sold status</t>
   </si>
   <si>
     <t>Verify error choose an available seat</t>
@@ -473,10 +469,6 @@
 carriages to match the color</t>
   </si>
   <si>
-    <t>In page:dsvn.vn/#/timkiem/ketqua
-Overall view</t>
-  </si>
-  <si>
     <t>Verify condition of the train</t>
   </si>
   <si>
@@ -593,14 +585,64 @@
     <t>Condition ID</t>
   </si>
   <si>
-    <t>Tìm vé tàu</t>
+    <t>Chức năng tìm vé tàu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click tab and watch </t>
+  </si>
+  <si>
+    <t>Make sure that the cursor moves in
+ the appropriate tab order</t>
+  </si>
+  <si>
+    <t>Verify error That book ticket without wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in page:dsvn.vn/#/timkiem/ketqua
+Turn of wifi then choose seat </t>
+  </si>
+  <si>
+    <t>Error message or no seat choosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify error that delete seat without wifi </t>
+  </si>
+  <si>
+    <t>in page:dsvn.vn/#/timkiem/ketqua
+Giỏ vé click icon trash can</t>
+  </si>
+  <si>
+    <t>Error message or can not delete seat</t>
+  </si>
+  <si>
+    <t>in page:dsvn.vn/#/timkiem/ketqua
+Choose seat has a set status</t>
+  </si>
+  <si>
+    <t>In page:dsvn.vn/#/timkiem/ketqua
+Overall view
+Toa còn vé: Bule
+Toa đang chọn: Green
+Toa hết vé, Chỗ đã bán, không bán: Red
+Chỗ trống: white
+Chỗ chặng dài hơn: Bule</t>
+  </si>
+  <si>
+    <t>Elements are displayed clearly, without overflow or overlap. Writing is clear and easy to read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify display interface on small(mobile) or lage resolution screen </t>
+  </si>
+  <si>
+    <t>1. Click F12 or inspect
+2.Collect, zoom size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,13 +672,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -651,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -667,6 +723,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,6 +741,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46C6D79-F9FE-4799-8ED9-551D4F6133A3}">
   <dimension ref="A1:P714"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,40 +1086,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>153</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1064,27 +1130,27 @@
     </row>
     <row r="4" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1093,18 +1159,18 @@
     <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1117,16 +1183,16 @@
     <row r="6" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
@@ -1139,34 +1205,46 @@
     <row r="7" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1175,18 +1253,18 @@
     <row r="9" spans="1:13" ht="74" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -1199,18 +1277,18 @@
     <row r="10" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>10</v>
@@ -1223,10 +1301,10 @@
     <row r="11" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
@@ -1241,18 +1319,18 @@
     <row r="12" spans="1:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -1262,21 +1340,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="148" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1289,7 +1367,7 @@
     <row r="14" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
@@ -1305,7 +1383,7 @@
     <row r="15" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
@@ -1321,7 +1399,7 @@
     <row r="16" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
@@ -1334,44 +1412,52 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:16" ht="74" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>10</v>
@@ -1385,7 +1471,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
@@ -1401,18 +1487,18 @@
     <row r="20" spans="1:16" ht="37" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>10</v>
@@ -1425,10 +1511,10 @@
     <row r="21" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1443,20 +1529,20 @@
     <row r="22" spans="1:16" ht="92.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>10</v>
@@ -1469,7 +1555,7 @@
     <row r="23" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
@@ -1485,20 +1571,20 @@
     <row r="24" spans="1:16" ht="74" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
@@ -1512,20 +1598,20 @@
     <row r="25" spans="1:16" ht="92.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>10</v>
@@ -1538,18 +1624,18 @@
     <row r="26" spans="1:16" ht="74" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>10</v>
@@ -1562,18 +1648,18 @@
     <row r="27" spans="1:16" ht="74" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>10</v>
@@ -1586,18 +1672,18 @@
     <row r="28" spans="1:16" ht="37" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1608,10 +1694,10 @@
     <row r="29" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1626,10 +1712,10 @@
     <row r="30" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1644,7 +1730,7 @@
     <row r="31" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1660,18 +1746,18 @@
     <row r="32" spans="1:16" ht="37" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>10</v>
@@ -1684,18 +1770,18 @@
     <row r="33" spans="2:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>10</v>
@@ -1708,7 +1794,7 @@
     <row r="34" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
@@ -1724,20 +1810,20 @@
     <row r="35" spans="2:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>10</v>
@@ -1750,18 +1836,18 @@
     <row r="36" spans="2:13" ht="92.5" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>10</v>
@@ -1774,18 +1860,18 @@
     <row r="37" spans="2:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1796,7 +1882,7 @@
     <row r="38" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="1"/>
@@ -1812,7 +1898,7 @@
     <row r="39" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
@@ -1828,7 +1914,7 @@
     <row r="40" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
@@ -1844,7 +1930,7 @@
     <row r="41" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
@@ -1860,14 +1946,14 @@
     <row r="42" spans="2:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1880,7 +1966,7 @@
     <row r="43" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1896,18 +1982,18 @@
     <row r="44" spans="2:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>10</v>
@@ -1919,21 +2005,21 @@
     </row>
     <row r="45" spans="2:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>10</v>
@@ -1946,20 +2032,20 @@
     <row r="46" spans="2:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>10</v>
@@ -1972,7 +2058,7 @@
     <row r="47" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1988,20 +2074,20 @@
     <row r="48" spans="2:13" ht="74" x14ac:dyDescent="0.45">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>10</v>
@@ -2014,20 +2100,20 @@
     <row r="49" spans="2:13" ht="74" x14ac:dyDescent="0.45">
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2038,20 +2124,20 @@
     <row r="50" spans="2:13" ht="74" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>10</v>
@@ -2064,18 +2150,18 @@
     <row r="51" spans="2:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>10</v>
@@ -2088,18 +2174,18 @@
     <row r="52" spans="2:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2110,14 +2196,14 @@
     <row r="53" spans="2:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="2" t="s">
@@ -2131,33 +2217,49 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:13" ht="37" x14ac:dyDescent="0.45">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
